--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value173.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value173.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.434784165195001</v>
+        <v>0.8304660320281982</v>
       </c>
       <c r="B1">
-        <v>1.617415437362813</v>
+        <v>3.695141315460205</v>
       </c>
       <c r="C1">
-        <v>1.975267986737339</v>
+        <v>6.106452465057373</v>
       </c>
       <c r="D1">
-        <v>3.017462781322858</v>
+        <v>2.738850355148315</v>
       </c>
       <c r="E1">
-        <v>0.469229592574896</v>
+        <v>1.903808832168579</v>
       </c>
     </row>
   </sheetData>
